--- a/biology/Zoologie/Abramis/Abramis.xlsx
+++ b/biology/Zoologie/Abramis/Abramis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abramis (les brèmes) est un genre de poissons d'eau douce appartenant à la famille des Cyprinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre dérive du grec αβραμίς, « brème ou mulet ».
 </t>
@@ -542,11 +556,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (14 fev. 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (14 fev. 2016) :
 Abramis brama (Linnaeus, 1758)
-Selon World Register of Marine Species                               (14 fev. 2016)[2] :
+Selon World Register of Marine Species                               (14 fev. 2016) :
 Abramis brama (Linnaeus, 1758)
 Abramis parsa
 Abramis sapa (Pallas, 1814) - appartient au genre Ballerus selon FishBase</t>
@@ -577,10 +593,12 @@
           <t>Risques sanitaires, écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une eau polluée, la brème fait partie des poissons bioaccumulateurs. 
-En raison de sa propension à bioconcentrer les métaux lourds, certains métalloïdes ou des polluants peu biodégradables tels que les PCB, furanes ou dioxines, ce poisson peut dans certains cours d'eau pollués être durablement ou provisoirement interdit de pêche, de détention et de toute commercialisation[3].
+En raison de sa propension à bioconcentrer les métaux lourds, certains métalloïdes ou des polluants peu biodégradables tels que les PCB, furanes ou dioxines, ce poisson peut dans certains cours d'eau pollués être durablement ou provisoirement interdit de pêche, de détention et de toute commercialisation.
 </t>
         </is>
       </c>
